--- a/results/2017年第1季.xlsx
+++ b/results/2017年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7576 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>783,392</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>664,081</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>236,936</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>158,516</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>138,402</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-314,562</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>42,341</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>137,514</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>953,828</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,259,148</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,519,959</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,263,431</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,010,958</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,322,071</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,150,449</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,767,678</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-645,346</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,201,963</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6,131,505</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,376,270</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>35,773,815</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13,577,050</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,847,004</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>647,253</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-284,937</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-385,308</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,329,635</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>85,051</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1,277,337</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>52,423,913</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39,346,501</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>78,720,694</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,555,867</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,932,785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,688,756</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,281,260</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-757,619</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-371,354</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-240,680</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-1,062,932</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8,335,549</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,688,131</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>32,626,311</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>477</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>452,976</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>265,136</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>151,429</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>102,797</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>244,245</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-111,248</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-225,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>239,124</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>540,520</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>24,284</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2,591,056</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11,712,276</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,006,958</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>477,531</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>555,676</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>336,272</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-138,024</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-1,055,860</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>336,272</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18,500,491</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5,161,117</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>40,010,216</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-34,122</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-40,676</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-46,456</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-29,238</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-130,785</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25,515</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>255,979</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,448,084</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>121</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,282,331</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,104,669</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>731,517</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>496,427</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,019,820</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1,171,548</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1,086,136</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6,352</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9,010,354</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,536,853</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>28,071,459</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,348,209</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>201,957</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49,349</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9,766</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>82,484</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-45,341</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>36,634</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>41,150</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,970,569</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>938,409</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4,242,978</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,229,396</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>954,807</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>672,276</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>283,210</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,270,398</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-472,382</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-251,249</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>962,025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9,373,769</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13,811,149</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>33,841,613</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,782,335</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>859,345</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>498,355</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>420,923</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>311,488</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-354,087</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>98,393</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-53,565</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,589,167</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4,526,195</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11,497,168</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9,016,749</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,985,879</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,594,289</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1,323,885</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>422,027</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>64,809</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-1,093,399</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>54,512</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>24,531,837</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,666,604</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>77,228,096</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>224,400</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56,282</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-6,747</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-8,644</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>28,523</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-1,346</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-777</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25,586</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>406,254</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>384,460</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,238,437</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14,853,277</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,479,024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>133,659</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>112,966</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-282,329</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-702,032</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>410,980</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-1,043,571</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>19,438,308</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10,163,300</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>24,810,331</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>309,394</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14,082</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-77,314</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>61,177</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6,655</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-68,938</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5,423</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-63,471</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,425,316</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2,066,293</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,657,408</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,801,394</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>486,692</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>314,351</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>228,441</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>870,245</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-286,563</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-529,905</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>533,940</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,675,766</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,672,358</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15,360,307</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,723,030</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>939,358</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>288,793</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>133,241</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>320,242</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-38,456</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-200,317</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>300,805</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,524,221</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,815,962</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>12,867,368</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>819,229</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>200,925</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19,071</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>17,247</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-71,920</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-34,696</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-105,877</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>471,078</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>243,894</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,224,928</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>750,426</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-167,556</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-265,833</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-248,164</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-77,940</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-209,393</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>773,604</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-285,049</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,794,781</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-4.97</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-2.81</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,934,291</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,671,972</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>335,847</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100,022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35,454</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-10,382</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>53,816</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-115,214</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>28,919</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-60,559</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>770,029</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>679,929</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,026,422</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>441,502</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>93,216</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46,521</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20,642</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-101,884</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-972,979</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3,163,707</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-135,557</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4,181,313</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,538,127</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>8,716,197</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>58,715</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>38,286</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-9,170</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-12,181</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-2,499</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-7,928</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>42,248</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-5,847</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>112,272</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.97</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>131,367</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>553,790</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>440,856</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>136,357</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96,069</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>60,237</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>160,147</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-37,385</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-2,023</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>121,068</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>349,817</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,231,602</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,239,793</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,127,998</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>471,996</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>138,388</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>106,004</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>69,791</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-160,304</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-16,230</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-152,970</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,122,485</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3,030,557</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,155,456</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,728,368</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>474,964</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>131,404</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>130,235</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>184,135</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-132,204</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-52,053</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>108,097</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2,883,071</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,895,074</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,700,404</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8,034,156</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,461,143</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>826,817</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>777,854</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>506,399</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-739,445</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-273,001</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>407,761</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15,447,277</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,761,104</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>25,047,272</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25,124</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16,548</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-42,660</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-46,322</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-29,998</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10,687</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-30,255</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>63,910</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-5.44</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-5.11</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>18,445</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>895,888</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,230,751</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-1,691,297</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-1,806,581</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,495,107</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2,137,010</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-85,639</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2,257,715</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-2,239,591</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>17,830,964</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-13.02</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-5.30</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,611,642</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28,565,515</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,404,353</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>353,253</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>163,714</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>85,395</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-220,501</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-8,031</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>22,077</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-225,303</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,337,790</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,028,238</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4,092,838</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>695,516</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>139,238</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24,260</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1,229</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-49,004</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>482,195</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-25,275</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-53,346</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,397,776</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>173,046</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,859,626</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,595,917</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,355,191</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>152,474</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>26,773</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,323,835</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-334,106</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-1,658,207</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,117,786</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>21,745,616</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,441,361</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>37,812,951</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>142,548</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3,458</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-5,132</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5,955</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>43,780</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>47,593</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>42,332</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>225,840</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>368,418</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,778,943</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>82,984,349</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9,951,522</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6,433,704</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,680,799</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>6,356,851</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-6,893,577</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>270,325</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>528,426</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>344,109,599</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>425,175,281</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>675,904,261</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2,063,471</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>91,877</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34,817</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-23,880</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-449,369</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-609,650</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>977,403</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-919,554</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>13,078,115</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>12,533,097</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>16,464,024</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>698,238</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>65,184</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51,323</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>37,610</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-37,390</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-12,512</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-77,180</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-49,902</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,871,655</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>924,701</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,351,609</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>53</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>429,731</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>233,973</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55,647</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>48,105</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>51,570</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-8,491</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-141,666</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>38,122</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>621,467</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>776,898</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,496,435</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>406,676</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>91,778</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>57,821</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>30,156</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>169,138</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-4,710</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-251,829</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>169,138</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,153,444</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>23,115</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,469,735</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>189,997</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>32,034</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2,303</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>48,956</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-15,910</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>78,544</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-10,283</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-19,949</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>172,705</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>246,036</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,076,821</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>408,626</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>96,435</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>48,095</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>28,840</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>17,602</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-6,886</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-102,578</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11,189</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>263,392</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>251,157</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,682,988</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>404,835</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>136,271</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>41,545</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8,688</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-95,220</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-10,406</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>36,910</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-102,782</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,138,768</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>959,004</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,931,314</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>174,305</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-9,112</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-69,675</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-119,641</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>292,944</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-20,376</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>8,921</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>285,348</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,173,060</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-8.70</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-4.99</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>540,537</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,473,614</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>543,221</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>122,091</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>48,591</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5,979</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>50,991</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-47,637</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-91,100</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-8,747</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,389,021</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>824,885</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,682,904</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3,597,795</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>940,341</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-126,188</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>186,714</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-319,778</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-81,727</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1,172,348</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-570,548</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>26,711,584</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,530,376</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>33,780,006</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>933,729</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>278,568</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-8,703</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-22,853</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-68,910</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-157,769</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>138,509</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-82,561</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,546,609</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,889,916</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,501,999</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>96,114,609</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>32,068,573</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5,607,043</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,796,384</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-2,376,951</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-1,932,084</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-6,673,963</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-6,341,663</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>199,307,246</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>143,055,979</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>353,964,073</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,328,770</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>224,506</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-219,640</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-399,387</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-290,994</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>718,918</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-939,590</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-354,161</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8,154,416</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,992,334</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>24,732,505</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,222,716</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-77,932</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-443,126</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-519,792</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-499,540</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>640,828</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-774,298</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-561,062</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>7,298,961</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-2.49</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>14,322,783</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>27,832,343</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>86,025,771</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20,345,021</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14,632,036</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11,858,119</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>27,168,332</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-4,643,864</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-19,885,196</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>21,363,953</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>124,018,639</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>196,075,992</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>359,565,605</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,230,574</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,900,517</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3,852,640</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3,282,690</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,498,120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-3,968,890</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>10,010,622</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-649,351</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>61,788,174</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>71,886,199</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>158,925,934</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>542,034</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>147,616</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67,447</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-88,873</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>165,858</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>132,108</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-199,140</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>165,212</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,168,344</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-5.26</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,676,251</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,816,801</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>975,043,856</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>71,724,616</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>36,489,726</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>29,207,446</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>76,942,741</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-50,825,231</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-85,808,256</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>66,659,144</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,148,836,793</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>290,076,851</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,332,342,123</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>36</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,307,770</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>499,195</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>282,946</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>203,671</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-1,539,186</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-2,008,195</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1,116,728</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-1,589,146</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13,806,677</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,103,980</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>24,579,694</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9,682,978</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,948,188</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>671,398</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>288,446</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-4,836,888</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-192,058</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-1,739,062</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-5,048,429</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>61,495,564</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44,509,917</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>98,784,439</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,325,556</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1,250,004</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>914,090</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>960,512</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-183,032</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-283,508</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-628,338</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-187,219</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24,269,700</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,684,523</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>57,257,254</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>152,814</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>24,205</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11,458</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>18,383</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>13,223</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,542</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11,782</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>179,368</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>388,037</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,472,192</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,186,919</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,688,681</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>368,495</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>479,142</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>448,844</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-493,988</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>73,110</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-461,532</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>30,202,878</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>17,393,278</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>50,784,292</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28,641,252</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7,350,580</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3,191,954</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,944,277</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2,482,900</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,622,651</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4,954,213</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-1,164,238</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>83,866,407</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>100,706,952</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>170,810,673</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>54,533,400</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19,912,637</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,533,277</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9,843,456</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10,648,183</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-3,879,009</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>206,480</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>6,036,599</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>67,264,256</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>285,914,918</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>448,410,306</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4,764,912</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>815,962</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>221,881</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>171,896</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>167,400</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>945,965</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>7,493</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>159,620</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,187,710</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,202,277</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13,742,434</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>191,739</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>69,732</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>45,762</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-67,931</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-273,963</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>217,510</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>149,878</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-273,963</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,214,181</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,480,414</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>164,485,990</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>32,080,037</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29,446,239</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>22,617,270</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>38,133,745</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>6,960,189</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-4,322,227</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>36,499,958</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>140,638,605</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>112,672,277</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>471,067,571</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,544,706</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>475,737</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>104,943</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>95,106</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>132,544</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-60,489</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>95,641</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>91,910</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,341,729</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,097,017</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,902,093</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,436,112</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>672,396</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80,431</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-73,703</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>207,693</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-78,088</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>86,478</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>180,558</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,321,583</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,962,204</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,749,735</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,998,647</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,540,825</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>710,548</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>527,116</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,460,163</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,001,982</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-524,507</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>300,504</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,387,754</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,844,360</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35,623,695</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,856,813</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,793,369</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>702,745</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,442,045</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>825,402</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>74,019</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>819,338</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>8,550,823</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,583,172</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>30,668,171</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>937,784</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>266,383</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>137,325</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>98,054</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>358,303</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-605,046</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>538,186</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-246,507</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,505,989</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6,273,918</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,775,096</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>33,838,895</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2,090,703</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>658,038</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>168,909</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2,253,221</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-838,880</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-2,023,855</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2,013,898</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>128,923,467</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>93,598,444</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>181,027,378</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>822,217</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-158,565</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-231,752</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-295,294</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>239,824</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-315,494</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>17,616</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>65,537</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,268,924</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-3.72</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>28,584,461</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>30,744,103</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>50,383,416</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,303,734</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,752,606</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,871,891</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>3,804,001</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-2,575,444</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-10,178,448</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-1,323,265</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>248,115,138</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>146,628,222</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>501,147,035</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>233,572</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>21,194</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1,051</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-3,425</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-86,516</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-7,018</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>71,995</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-90,924</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,652,632</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,701,425</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,716,931</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>493,249</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>159,346</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>62,466</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>47,982</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>27,894</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-11,889</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-23,665</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>19,917</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>310,942</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>673,877</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,882,687</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,417,950</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7,428,450</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,370,823</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,497,025</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>13,310,811</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-16,292,929</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7,845,394</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-4,343,524</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>162,697,984</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>217,554,565</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>379,379,167</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,290,504</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>479,982</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>294,753</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>170,664</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-52,550</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-174,166</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-1,683</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-215,106</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,569,755</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,258,076</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,058,216</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>292,715</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>41,614</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-6,209</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-27,799</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-414</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-5,191</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-6,346</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>309,101</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>902,028</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,779,979</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,868,863</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,478,382</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>936,114</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>560,748</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,619,720</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,246,637</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-1,754,241</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1,378,579</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17,506,565</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>28,010,802</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>41,660,608</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>76,537,882</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,985,499</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,087,438</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,201,506</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>6,574,480</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>177,832</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-3,090,598</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>6,520,299</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>77,508,645</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,536,042</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>119,778,627</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,121,971</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>790,905</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>119,637</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>85,427</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-480,342</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-188,727</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>18,738</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-563,995</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4,467,868</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,671,540</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,349,615</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9,188,470</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>890,373</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>325,831</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>316,476</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>353,780</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>19,743</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-6,043</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>347,777</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>13,257,148</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,271,500</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24,190,224</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8,100,834</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>275,436</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>39,774</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>74,933</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>272,653</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-39,987</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-304,540</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>269,325</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>8,690,789</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>312,417</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10,961,087</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>827,811</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>370,607</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>142,892</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>115,339</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>69,648</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-23,576</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-55,214</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>44,875</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,652,738</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,581,575</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,205,769</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>789,572</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>208,501</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-71,504</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-91,053</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-98,390</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2,355</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>70,986</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-121,038</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,670,774</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.02</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,252,853</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,133,032</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>172</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,720,863</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>568,039</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>306,434</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>234,954</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-24,654</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-4,355</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-18,505</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-68,043</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,430,423</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,204,119</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,392,544</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>306,509</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>274,062</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-33,457</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-85,092</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-1,182</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-108,270</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-192,248</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-134,544</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>5,292,576</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.39</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>6,001,580</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>7,749,540</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>127</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>13,519,518</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,783,791</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,057,568</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>835,138</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,316,531</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-711,805</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>326,218</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>599,547</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15,168,631</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,594,848</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30,222,577</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13,509,141</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,531,192</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>741,863</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>518,138</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-234,121</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-525,701</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1,740,011</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-444,743</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,093,061</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>6,924,801</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,043,085</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11,916,183</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2,991,296</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>898,656</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>635,037</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,612,577</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>665,862</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-775,150</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,248,774</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>34,992,596</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>18,172,139</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>91,213,951</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>749,272</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>101,699</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>19,134</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1,068</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>438,064</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-1,506</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-369,101</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>434,501</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,041,921</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>978,296</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,766,712</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>41</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,112,078</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,160,790</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>502,079</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>416,417</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>343,114</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-278,139</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>71,056</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>246,692</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>13,826,842</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,001,969</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>35,850,239</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>187,427,921</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,824,425</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,949,361</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1,108,146</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>4,676,320</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1,404,049</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-4,016,371</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3,735,497</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>222,221,094</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>19,289,173</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>331,952,737</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>108,221,176</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14,956,686</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4,010,530</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3,747,574</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-8,919,296</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-734,592</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>562,887</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-9,223,180</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>162,514,162</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>13,662,701</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>352,146,004</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>31,686,779</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,620,697</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>799,933</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,291,390</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-1,751,877</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-997,631</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3,075,276</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-2,337,667</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>60,138,561</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>18,395,953</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>93,149,177</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,006,239</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,051,338</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,503,299</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,205,513</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-420,826</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-316,267</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>25,443</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>-450,123</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>10,898,634</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,966,137</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>37,333,171</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,328,965</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,069,866</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>345,895</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>250,053</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-989,494</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>67,459</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>88,220</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-1,038,499</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>10,806,304</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,848,184</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,858,431</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>140,673</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>33,823</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-11,982</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-29,216</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-51,488</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-28,851</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-52,188</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>315,297</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-4.13</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,615</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,010,364</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,549,936</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>219,515</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87,422</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>60,326</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-3,133</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>4,975</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>431,000</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-3,133</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,727,521</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>355,343</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,832,242</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>214,411</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>185,172</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-65,749</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-64,304</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-164,581</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-590</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-164,804</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>187,027</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-4.18</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-3.63</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>41,755</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,691,026</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
